--- a/classfiers/nano/randomForest/nano-randomForest-results.xlsx
+++ b/classfiers/nano/randomForest/nano-randomForest-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9990610328638498</v>
+        <v>0.9994574064026045</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8085106382978724</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9997272975184074</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9977761304670126</v>
+        <v>0.9664575947641123</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8347368421052632</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8550340247708668</v>
+        <v>0.880114826072273</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993674326661723</v>
+        <v>0.9931284597370247</v>
       </c>
     </row>
   </sheetData>
